--- a/Laboratorio_4/Graficas_data.xlsx
+++ b/Laboratorio_4/Graficas_data.xlsx
@@ -8,38 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosalvarado/Desktop/DataWrangling/Laboratorio_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7497B028-C5D3-EE4B-B181-B21630B766C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E9D8BC-20BA-444E-B91A-50EAA9A9D4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2980" yWindow="-20160" windowWidth="34440" windowHeight="19460" xr2:uid="{51160D5C-A24D-2448-946B-42F1D9E63634}"/>
+    <workbookView xWindow="-1560" yWindow="-21100" windowWidth="33380" windowHeight="19460" xr2:uid="{51160D5C-A24D-2448-946B-42F1D9E63634}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$D$45:$D$49</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$E$44</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">Sheet1!$I$45:$I$49</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">Sheet1!$D$45</definedName>
-    <definedName name="_xlchart.v2.12" hidden="1">Sheet1!$D$46</definedName>
-    <definedName name="_xlchart.v2.13" hidden="1">Sheet1!$D$47</definedName>
-    <definedName name="_xlchart.v2.14" hidden="1">Sheet1!$D$48</definedName>
-    <definedName name="_xlchart.v2.15" hidden="1">Sheet1!$D$49</definedName>
-    <definedName name="_xlchart.v2.16" hidden="1">Sheet1!$E$44:$I$44</definedName>
-    <definedName name="_xlchart.v2.17" hidden="1">Sheet1!$E$45:$I$45</definedName>
-    <definedName name="_xlchart.v2.18" hidden="1">Sheet1!$E$46:$I$46</definedName>
-    <definedName name="_xlchart.v2.19" hidden="1">Sheet1!$E$47:$I$47</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$E$45:$E$49</definedName>
-    <definedName name="_xlchart.v2.20" hidden="1">Sheet1!$E$48:$I$48</definedName>
-    <definedName name="_xlchart.v2.21" hidden="1">Sheet1!$E$49:$I$49</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$F$44</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$F$45:$F$49</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$G$44</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$G$45:$G$49</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">Sheet1!$H$44</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">Sheet1!$H$45:$H$49</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">Sheet1!$I$44</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>Faltante</t>
   </si>
@@ -123,11 +99,77 @@
   <si>
     <t>Porcentaje</t>
   </si>
+  <si>
+    <t>Ubicaciones</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Meses</t>
+  </si>
+  <si>
+    <t>Crédito 30</t>
+  </si>
+  <si>
+    <t>Crédito 60</t>
+  </si>
+  <si>
+    <t>EL PINCHE OBELISCO</t>
+  </si>
+  <si>
+    <t>Porcentaje 30</t>
+  </si>
+  <si>
+    <t>Porcentaje 60</t>
+  </si>
+  <si>
+    <t>Porcentaje 90</t>
+  </si>
+  <si>
+    <t>Crédito 90</t>
+  </si>
+  <si>
+    <t>Total de viajes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -165,14 +207,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -219,12 +264,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -258,61 +300,165 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7E08-F845-A11D-6C3F88AF7506}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7E08-F845-A11D-6C3F88AF7506}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7E08-F845-A11D-6C3F88AF7506}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7E08-F845-A11D-6C3F88AF7506}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -331,10 +477,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -354,14 +497,13 @@
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:ln w="9525">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:schemeClr val="tx2">
                       <a:lumMod val="35000"/>
                       <a:lumOff val="65000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:round/>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -454,10 +596,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -478,7 +617,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -540,13 +679,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t> Clientes</a:t>
+              <a:t>Ventas</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> con más viajes</a:t>
+              <a:t> y procentaje del negocio</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -933,6 +1071,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="571465855"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1035,12 +1174,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1049,13 +1185,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t> Tipos</a:t>
+              <a:t> Tipos de viaje por cliente</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> de viaje por cliente</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1072,12 +1203,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1110,15 +1238,158 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.7777777777777779E-3"/>
+                  <c:y val="1.3796296296296296E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-5266-8E40-A8C9-97C50888CD14}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="1.3796296296296296E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-5266-8E40-A8C9-97C50888CD14}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.0925337632079971E-17"/>
+                  <c:y val="1.8425925925925925E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-5266-8E40-A8C9-97C50888CD14}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$E$44:$I$44</c:f>
@@ -1187,15 +1458,158 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2731334408019993E-17"/>
+                  <c:y val="1.8425925925925884E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5266-8E40-A8C9-97C50888CD14}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.0925337632079971E-17"/>
+                  <c:y val="1.8425925925925925E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-5266-8E40-A8C9-97C50888CD14}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="1.3796296296296296E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-5266-8E40-A8C9-97C50888CD14}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$E$44:$I$44</c:f>
@@ -1264,15 +1678,158 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.7777777777777779E-3"/>
+                  <c:y val="2.7685185185185184E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5266-8E40-A8C9-97C50888CD14}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="1.3796296296296296E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-5266-8E40-A8C9-97C50888CD14}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="2.3055555555555472E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-5266-8E40-A8C9-97C50888CD14}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$E$44:$I$44</c:f>
@@ -1341,15 +1898,158 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5462668816039986E-17"/>
+                  <c:y val="9.1666666666666667E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5266-8E40-A8C9-97C50888CD14}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="3.6944444444444446E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-5266-8E40-A8C9-97C50888CD14}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="2.7685185185185184E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-5266-8E40-A8C9-97C50888CD14}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$E$44:$I$44</c:f>
@@ -1418,15 +2118,168 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.7777777777777523E-3"/>
+                  <c:y val="2.3055555555555555E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-5266-8E40-A8C9-97C50888CD14}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-5266-8E40-A8C9-97C50888CD14}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.7777777777777779E-3"/>
+                  <c:y val="1.8425925925925842E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-5266-8E40-A8C9-97C50888CD14}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0185067526415994E-16"/>
+                  <c:y val="2.7685185185185101E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-5266-8E40-A8C9-97C50888CD14}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$E$44:$I$44</c:f>
@@ -1481,15 +2334,16 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="582818575"/>
         <c:axId val="580874399"/>
       </c:barChart>
@@ -1508,7 +2362,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -1524,10 +2378,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1555,7 +2406,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1583,10 +2434,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1610,6 +2458,385 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Viajes por Ubicación</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Viajes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6469-A847-B593-D2E6B725FFF7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-6469-A847-B593-D2E6B725FFF7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>49.77%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-6469-A847-B593-D2E6B725FFF7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>50.23%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-6469-A847-B593-D2E6B725FFF7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$67:$D$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>76001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$67:$E$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1085</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1095</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6469-A847-B593-D2E6B725FFF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1650,6 +2877,1549 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Viajes por mes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.2996949888257945E-2"/>
+          <c:y val="0.21507050052220122"/>
+          <c:w val="0.89885344250357013"/>
+          <c:h val="0.5468218120584919"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Viajes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.6777777777777793E-2"/>
+                  <c:y val="-7.407407407407407E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5D98-9649-A9AE-528F5984B798}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.4000000000000025E-2"/>
+                  <c:y val="-5.5555555555555552E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5D98-9649-A9AE-528F5984B798}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.3999999999999997E-2"/>
+                  <c:y val="-7.407407407407407E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5D98-9649-A9AE-528F5984B798}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.4000000000000053E-2"/>
+                  <c:y val="-7.407407407407407E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-5D98-9649-A9AE-528F5984B798}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.3999999999999997E-2"/>
+                  <c:y val="-6.4814814814814839E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-5D98-9649-A9AE-528F5984B798}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.3999999999999997E-2"/>
+                  <c:y val="-6.9444444444444489E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-5D98-9649-A9AE-528F5984B798}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.4000000000000102E-2"/>
+                  <c:y val="-5.5555555555555552E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-5D98-9649-A9AE-528F5984B798}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.3999999999999997E-2"/>
+                  <c:y val="-5.5555555555555552E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-5D98-9649-A9AE-528F5984B798}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.4000000000000102E-2"/>
+                  <c:y val="-5.5555555555555552E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-5D98-9649-A9AE-528F5984B798}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.4000000000000102E-2"/>
+                  <c:y val="-4.6296296296296294E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-5D98-9649-A9AE-528F5984B798}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.3686132983377181E-2"/>
+                  <c:y val="-4.1666666666666706E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-5D98-9649-A9AE-528F5984B798}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$82:$D$92</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mayo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septiembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octubre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Noviembre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$82:$E$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D98-9649-A9AE-528F5984B798}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1824736592"/>
+        <c:axId val="1865070208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1824736592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1865070208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1865070208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1824736592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Crédito a clientes con más viajes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EL PINCHE OBELISCO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$96:$H$96</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Total de viajes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Crédito 30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Crédito 60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Crédito 90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$97:$H$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-13CD-9D40-846C-31F7E59CA7FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$98</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TAQUERIA EL CHINITO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$96:$H$96</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Total de viajes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Crédito 30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Crédito 60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Crédito 90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$98:$H$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-13CD-9D40-846C-31F7E59CA7FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$99</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>POLLO PINULITO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$96:$H$96</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Total de viajes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Crédito 30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Crédito 60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Crédito 90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$99:$H$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-13CD-9D40-846C-31F7E59CA7FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UBIQUO LABS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$96:$H$96</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Total de viajes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Crédito 30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Crédito 60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Crédito 90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$100:$H$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-13CD-9D40-846C-31F7E59CA7FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1901231376"/>
+        <c:axId val="1901233024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1901231376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1901233024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1901233024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1901231376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1796,34 +4566,148 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="255">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1838,7 +4722,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1846,7 +4730,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1861,10 +4745,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -1873,9 +4754,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -1898,43 +4778,507 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1972,6 +5316,990 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -2232,7 +6560,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2248,7 +6576,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2315,8 +6643,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2327,7 +6655,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2350,18 +6678,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -2373,7 +6701,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2381,11 +6709,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -2417,35 +6745,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2457,30 +6795,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2502,15 +6844,506 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2544,64 +7377,157 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2609,102 +7535,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2712,17 +7542,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -2731,12 +7561,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2745,14 +7572,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2761,10 +7588,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -2773,7 +7597,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2794,10 +7618,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -2806,517 +7627,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3331,8 +7643,8 @@
       <xdr:rowOff>30122</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>130256</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>455898</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>122116</xdr:rowOff>
     </xdr:to>
@@ -3367,8 +7679,8 @@
       <xdr:rowOff>98711</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>183661</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>615135</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>21492</xdr:rowOff>
     </xdr:to>
@@ -3409,68 +7721,18 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>268653</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>105834</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>333782</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>10827</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD32995-DD79-F7D5-C813-1B02503AD863}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6789615" y="6211603"/>
-          <a:ext cx="4176346" cy="2347301"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>91179</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>191477</xdr:rowOff>
+      <xdr:colOff>99320</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>187243</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>551961</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>85318</xdr:rowOff>
+      <xdr:colOff>560102</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>81410</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3478,6 +7740,42 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFB48883-D322-A128-9768-216597AEEFAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1076243</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>150772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>771769</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>44613</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="26" name="Chart 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0BE801E-9EB5-2BAF-26DB-A81E471641F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3497,23 +7795,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1051820</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>110067</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323199</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>36798</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>747346</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>3908</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>480321</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>134165</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="26" name="Chart 25">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0BE801E-9EB5-2BAF-26DB-A81E471641F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{344ED4A0-5FE8-C7FE-854E-AB510DF03628}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3531,7 +7829,1408 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>518584</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>122115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>157122</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>52754</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F35396-7572-931B-8987-81A62731A24B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>651282</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>40705</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1733488" cy="233141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56E7F0A1-41F1-17E2-37DE-F5E062F8321E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9638974" y="7367628"/>
+          <a:ext cx="1733488" cy="233141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="900"/>
+            <a:t>Clientes del 50.77%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" baseline="0"/>
+            <a:t> de las ventas</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>282494</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>191476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>743276</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>85317</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22FC0FD2-EA17-DF51-1BC1-2187E051E4BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>97692</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>73270</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1580561" cy="233141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20CBB677-6E0B-4664-2215-38010E7F6622}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6618654" y="20832885"/>
+          <a:ext cx="1580561" cy="233141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="900"/>
+            <a:t>Todo crédito tiene 30%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" baseline="0"/>
+            <a:t> o más</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600156</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>10095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D59DC83-CF13-1FCA-43B2-2E42372C2627}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9248205" y="610577"/>
+          <a:ext cx="2374900" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209713</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC6F4FB-61C5-B919-A0BB-349A8453E0DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8295705" y="6309295"/>
+          <a:ext cx="3759200" cy="2755900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>814102</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>81410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>820615</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>179754</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B4EDE07-6BA1-6383-0678-399E935BBFEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9109807" y="10868269"/>
+          <a:ext cx="3556000" cy="2133600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>301218</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>24423</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1966692" cy="264431"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92ABE83B-6CA2-7780-81AF-21C8F8A5957F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6822180" y="16306474"/>
+          <a:ext cx="1966692" cy="264431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Meses pico por encima de: 200</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>559126</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>59918</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88758C89-667D-1169-5296-E75B03648824}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11022949" y="16689103"/>
+          <a:ext cx="3848100" cy="2298700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>358856</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>98343</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE3C2652-756E-A7C9-8D55-623E4BD14FBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9248205" y="13432692"/>
+          <a:ext cx="2133600" cy="2133600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>203525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>298939</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>140952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4891B949-BF8B-5857-752B-70F87EBD5621}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="822244" y="1424679"/>
+          <a:ext cx="7772400" cy="4414991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>325641</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>122115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>903655</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>56987</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D4DD7F8-DDB0-E05F-B2E9-7B52CCFB2CB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2792372" y="24138141"/>
+          <a:ext cx="5454488" cy="3394808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1237436</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>195386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>301219</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>73271</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Down Arrow 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA61ABAE-710D-B2AF-ABF8-A3B019A6955B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3704167" y="24211412"/>
+          <a:ext cx="561731" cy="1099038"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390769</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>81411</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2295500" cy="436530"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="TextBox 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9629568D-78FD-5EB8-799E-3A5EBCF1A7CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="25318590"/>
+          <a:ext cx="2295500" cy="436530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Reducir los viajes de tipo: Faltante</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Reducir</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> la cantidad de crédito: 60-90</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>195386</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>40707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>293079</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>179104</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Triangle 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E4856C8-9E03-4486-983B-48D1A9C35EAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6716348" y="24260258"/>
+          <a:ext cx="919936" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>233810</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>111696</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2351926" cy="264431"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="TextBox 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71D5B5B0-8324-5C4A-9CF2-DC1B2F5465A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5932528" y="25348875"/>
+          <a:ext cx="2351926" cy="264431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Considerar abrir</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> una nueva ubicación </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>691988</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>122115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561732</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>56987</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C5C15F-C8FD-5A5C-9E7C-A0EE5F9F9098}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4656667" y="26173397"/>
+          <a:ext cx="781539" cy="341923"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>700129</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>32564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>16282</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Oval 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82DE2187-A3DE-1ED9-08A1-E24B3E850AC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4664808" y="26490897"/>
+          <a:ext cx="211667" cy="187244"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>315221</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>46566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>526888</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>30284</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Oval 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E8B91A-4CDD-2245-ACEF-9EAAEB409F99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5191695" y="26504899"/>
+          <a:ext cx="211667" cy="187244"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>545450</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>40704</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>797822</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>56987</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rounded Rectangle 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ECD1DD0-4F92-262B-ED21-E91BEBEAC29D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5421924" y="26295512"/>
+          <a:ext cx="252372" cy="219808"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>372209</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>14002</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2265428" cy="436530"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="TextBox 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C56D44F-94F0-6348-A72C-7C4DF3E4D5B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4336888" y="26675861"/>
+          <a:ext cx="2265428" cy="436530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Aumento</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> de unidades de transporte</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>    - Camión grande</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>89551</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>24422</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>478041</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>5862</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Down Arrow 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F938E0A-A50B-D646-9C27-DDEC54459886}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5788269" y="25872178"/>
+          <a:ext cx="388490" cy="795543"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>378071</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>158261</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2385846" cy="436530"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="TextBox 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D86438E3-923C-B04D-AD8D-E8C47AE1ABB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4342750" y="27023646"/>
+          <a:ext cx="2385846" cy="436530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Aumento</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> de producción de materiales</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Posible aumento de personal</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.29879</cdr:x>
+      <cdr:y>0.10529</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.69587</cdr:x>
+      <cdr:y>0.20026</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21492425-E1FE-A07C-8368-14A550E213FB}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1366063" y="288844"/>
+          <a:ext cx="1815449" cy="260513"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900"/>
+            <a:t>Clientes del 55.8% de los viajes</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.75748</cdr:x>
+      <cdr:y>0.71087</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="3" name="Picture 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9728E907-13C6-4C25-2757-C5233601BBAF}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="0"/>
+          <a:ext cx="3759200" cy="2120900"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3831,16 +9530,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2774BE-2C54-1B41-9D95-181642CE8A5E}">
-  <dimension ref="D2:I49"/>
+  <dimension ref="D2:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C39" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView tabSelected="1" topLeftCell="B114" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="I139" sqref="I139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:6" x14ac:dyDescent="0.2">
@@ -3884,14 +9584,14 @@
       </c>
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
@@ -3912,7 +9612,7 @@
       <c r="E14">
         <v>338</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <f>E14/$F$13</f>
         <v>0.57482993197278909</v>
       </c>
@@ -3924,7 +9624,7 @@
       <c r="E15">
         <v>158</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <f t="shared" ref="F15:F16" si="0">E15/$F$13</f>
         <v>0.2687074829931973</v>
       </c>
@@ -3936,14 +9636,14 @@
       <c r="E16">
         <v>92</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <f t="shared" si="0"/>
         <v>0.15646258503401361</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
@@ -3964,7 +9664,7 @@
       <c r="E20">
         <v>482</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <f>E20/$F$19</f>
         <v>0.56242707117852975</v>
       </c>
@@ -3976,7 +9676,7 @@
       <c r="E21">
         <v>238</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <f t="shared" ref="F21:F22" si="1">E21/$F$19</f>
         <v>0.27771295215869313</v>
       </c>
@@ -3988,14 +9688,14 @@
       <c r="E22">
         <v>137</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <f t="shared" si="1"/>
         <v>0.15985997666277713</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
@@ -4016,7 +9716,7 @@
       <c r="E26">
         <v>70</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <f>E26/$F$25</f>
         <v>0.58823529411764708</v>
       </c>
@@ -4028,7 +9728,7 @@
       <c r="E27">
         <v>26</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <f t="shared" ref="F27:F28" si="2">E27/$F$25</f>
         <v>0.21848739495798319</v>
       </c>
@@ -4040,14 +9740,14 @@
       <c r="E28">
         <v>23</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <f t="shared" si="2"/>
         <v>0.19327731092436976</v>
       </c>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
@@ -4068,7 +9768,7 @@
       <c r="E32">
         <v>247</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <f>E32/$F$31</f>
         <v>0.50203252032520329</v>
       </c>
@@ -4080,7 +9780,7 @@
       <c r="E33">
         <v>152</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <f t="shared" ref="F33:F34" si="3">E33/$F$31</f>
         <v>0.30894308943089432</v>
       </c>
@@ -4092,7 +9792,7 @@
       <c r="E34">
         <v>93</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <f t="shared" si="3"/>
         <v>0.18902439024390244</v>
       </c>
@@ -4104,6 +9804,9 @@
       <c r="F36">
         <v>598848.19999999995</v>
       </c>
+      <c r="I36">
+        <v>2180</v>
+      </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
@@ -4115,72 +9818,116 @@
       <c r="F37" t="s">
         <v>20</v>
       </c>
+      <c r="H37">
+        <f>E45</f>
+        <v>256</v>
+      </c>
+      <c r="I37" s="4">
+        <f>H37/I36</f>
+        <v>0.11743119266055047</v>
+      </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>71079</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="1">
         <f>E38/$F$36</f>
         <v>0.11869285070907787</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ref="H38:H42" si="4">E46</f>
+        <v>247</v>
+      </c>
+      <c r="I38" s="4">
+        <f>H38/I36</f>
+        <v>0.11330275229357799</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>69136</v>
       </c>
-      <c r="F39" s="2">
-        <f t="shared" ref="F39:F42" si="4">E39/$F$36</f>
+      <c r="F39" s="1">
+        <f t="shared" ref="F39:F42" si="5">E39/$F$36</f>
         <v>0.115448288898589</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="4"/>
+        <v>228</v>
+      </c>
+      <c r="I39" s="4">
+        <f>H39/I36</f>
+        <v>0.10458715596330276</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>65106</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="1">
+        <f t="shared" si="5"/>
+        <v>0.10871870367148136</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="4"/>
-        <v>0.10871870367148136</v>
+        <v>241</v>
+      </c>
+      <c r="I40" s="4">
+        <f>H40/I36</f>
+        <v>0.11055045871559634</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>64251</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
+        <f t="shared" si="5"/>
+        <v>0.10729096288508508</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="4"/>
-        <v>0.10729096288508508</v>
+        <v>245</v>
+      </c>
+      <c r="I41" s="4">
+        <f>H41/I36</f>
+        <v>0.11238532110091744</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>34485</v>
       </c>
-      <c r="F42" s="2">
-        <f t="shared" si="4"/>
+      <c r="F42" s="1">
+        <f t="shared" si="5"/>
         <v>5.7585545051316848E-2</v>
+      </c>
+      <c r="I42" s="6">
+        <f>SUM(I37:I41)</f>
+        <v>0.55825688073394497</v>
       </c>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="7">
         <f>SUM(F38:F42)</f>
         <v>0.50773635121555016</v>
       </c>
@@ -4303,6 +10050,289 @@
       </c>
       <c r="I49">
         <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <f>E67+E68</f>
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D67">
+        <v>76001</v>
+      </c>
+      <c r="E67">
+        <v>1085</v>
+      </c>
+      <c r="F67" s="5">
+        <f>E67/F65</f>
+        <v>0.49770642201834864</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D68">
+        <v>76002</v>
+      </c>
+      <c r="E68">
+        <v>1095</v>
+      </c>
+      <c r="F68" s="5">
+        <f>E68/F65</f>
+        <v>0.50229357798165142</v>
+      </c>
+    </row>
+    <row r="81" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>33</v>
+      </c>
+      <c r="E81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E82">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="83" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="84" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D84" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="87" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="88" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="89" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>29</v>
+      </c>
+      <c r="E89">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="90" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>30</v>
+      </c>
+      <c r="E90">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D91" t="s">
+        <v>31</v>
+      </c>
+      <c r="E91">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D92" t="s">
+        <v>32</v>
+      </c>
+      <c r="E92">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" t="s">
+        <v>41</v>
+      </c>
+      <c r="F96" t="s">
+        <v>34</v>
+      </c>
+      <c r="G96" t="s">
+        <v>35</v>
+      </c>
+      <c r="H96" t="s">
+        <v>40</v>
+      </c>
+      <c r="I96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J96" t="s">
+        <v>38</v>
+      </c>
+      <c r="K96" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D97" t="s">
+        <v>36</v>
+      </c>
+      <c r="E97">
+        <f>SUM(F97:H97)</f>
+        <v>274</v>
+      </c>
+      <c r="F97">
+        <v>98</v>
+      </c>
+      <c r="G97">
+        <v>96</v>
+      </c>
+      <c r="H97">
+        <v>80</v>
+      </c>
+      <c r="I97" s="5">
+        <f>F97/E97</f>
+        <v>0.35766423357664234</v>
+      </c>
+      <c r="J97" s="5">
+        <f>G97/E97</f>
+        <v>0.35036496350364965</v>
+      </c>
+      <c r="K97" s="5">
+        <f>H97/E97</f>
+        <v>0.29197080291970801</v>
+      </c>
+    </row>
+    <row r="98" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ref="E98:E100" si="6">SUM(F98:H98)</f>
+        <v>244</v>
+      </c>
+      <c r="F98">
+        <v>96</v>
+      </c>
+      <c r="G98">
+        <v>76</v>
+      </c>
+      <c r="H98">
+        <v>72</v>
+      </c>
+      <c r="I98" s="5">
+        <f>F98/E98</f>
+        <v>0.39344262295081966</v>
+      </c>
+      <c r="J98" s="5">
+        <f t="shared" ref="J98:J100" si="7">G98/E98</f>
+        <v>0.31147540983606559</v>
+      </c>
+      <c r="K98" s="5">
+        <f t="shared" ref="K98:K100" si="8">H98/E98</f>
+        <v>0.29508196721311475</v>
+      </c>
+    </row>
+    <row r="99" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="6"/>
+        <v>228</v>
+      </c>
+      <c r="F99">
+        <v>76</v>
+      </c>
+      <c r="G99">
+        <v>91</v>
+      </c>
+      <c r="H99">
+        <v>61</v>
+      </c>
+      <c r="I99" s="5">
+        <f>F99/E99</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J99" s="5">
+        <f t="shared" si="7"/>
+        <v>0.39912280701754388</v>
+      </c>
+      <c r="K99" s="5">
+        <f t="shared" si="8"/>
+        <v>0.26754385964912281</v>
+      </c>
+    </row>
+    <row r="100" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D100" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="6"/>
+        <v>241</v>
+      </c>
+      <c r="F100">
+        <v>71</v>
+      </c>
+      <c r="G100">
+        <v>90</v>
+      </c>
+      <c r="H100">
+        <v>80</v>
+      </c>
+      <c r="I100" s="5">
+        <f>F100/E100</f>
+        <v>0.29460580912863071</v>
+      </c>
+      <c r="J100" s="5">
+        <f t="shared" si="7"/>
+        <v>0.37344398340248963</v>
+      </c>
+      <c r="K100" s="5">
+        <f t="shared" si="8"/>
+        <v>0.33195020746887965</v>
       </c>
     </row>
   </sheetData>
